--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="175">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -525,6 +525,39 @@
   </si>
   <si>
     <t>KYN78042</t>
+  </si>
+  <si>
+    <t>VVS65413</t>
+  </si>
+  <si>
+    <t>CDT97302</t>
+  </si>
+  <si>
+    <t>BGT09886</t>
+  </si>
+  <si>
+    <t>PJY17079</t>
+  </si>
+  <si>
+    <t>YWE60907</t>
+  </si>
+  <si>
+    <t>ULJ22692</t>
+  </si>
+  <si>
+    <t>MOX35395</t>
+  </si>
+  <si>
+    <t>HHI01011</t>
+  </si>
+  <si>
+    <t>ZTN54260</t>
+  </si>
+  <si>
+    <t>OWZ63783</t>
+  </si>
+  <si>
+    <t>BZT77948</t>
   </si>
 </sst>
 </file>
@@ -1447,7 +1480,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1809,7 +1842,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2179,7 +2212,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="177">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -558,6 +558,12 @@
   </si>
   <si>
     <t>BZT77948</t>
+  </si>
+  <si>
+    <t>MCR81115</t>
+  </si>
+  <si>
+    <t>IZD71690</t>
   </si>
 </sst>
 </file>
@@ -1842,7 +1848,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2212,7 +2218,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="183">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -564,6 +564,24 @@
   </si>
   <si>
     <t>IZD71690</t>
+  </si>
+  <si>
+    <t>AEF96831</t>
+  </si>
+  <si>
+    <t>KQR41349</t>
+  </si>
+  <si>
+    <t>OYM72023</t>
+  </si>
+  <si>
+    <t>YTK55565</t>
+  </si>
+  <si>
+    <t>FBK89580</t>
+  </si>
+  <si>
+    <t>RVJ66516</t>
   </si>
 </sst>
 </file>
@@ -1486,7 +1504,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1848,7 +1866,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2218,7 +2236,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="185">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -582,6 +582,12 @@
   </si>
   <si>
     <t>RVJ66516</t>
+  </si>
+  <si>
+    <t>POJ39023</t>
+  </si>
+  <si>
+    <t>CJW18214</t>
   </si>
 </sst>
 </file>
@@ -1504,7 +1510,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1866,7 +1872,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="187">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -588,6 +588,12 @@
   </si>
   <si>
     <t>CJW18214</t>
+  </si>
+  <si>
+    <t>RKS12509</t>
+  </si>
+  <si>
+    <t>SIO12459</t>
   </si>
 </sst>
 </file>
@@ -1510,7 +1516,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1872,7 +1878,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="189">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -594,6 +594,12 @@
   </si>
   <si>
     <t>SIO12459</t>
+  </si>
+  <si>
+    <t>AIB17336</t>
+  </si>
+  <si>
+    <t>UJX17344</t>
   </si>
 </sst>
 </file>
@@ -1516,7 +1522,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1878,7 +1884,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="192">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -600,6 +600,15 @@
   </si>
   <si>
     <t>UJX17344</t>
+  </si>
+  <si>
+    <t>NWG64733</t>
+  </si>
+  <si>
+    <t>OMU23728</t>
+  </si>
+  <si>
+    <t>ORB42334</t>
   </si>
 </sst>
 </file>
@@ -1522,7 +1531,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1884,7 +1893,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="202">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -609,6 +609,36 @@
   </si>
   <si>
     <t>ORB42334</t>
+  </si>
+  <si>
+    <t>TZM74927</t>
+  </si>
+  <si>
+    <t>QFG02120</t>
+  </si>
+  <si>
+    <t>RLG21280</t>
+  </si>
+  <si>
+    <t>OZF78847</t>
+  </si>
+  <si>
+    <t>NRW41987</t>
+  </si>
+  <si>
+    <t>JHL07373</t>
+  </si>
+  <si>
+    <t>TMR24197</t>
+  </si>
+  <si>
+    <t>YUI55785</t>
+  </si>
+  <si>
+    <t>RRW43785</t>
+  </si>
+  <si>
+    <t>ZHV06520</t>
   </si>
 </sst>
 </file>
@@ -1531,7 +1561,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1893,7 +1923,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="204">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -639,6 +639,12 @@
   </si>
   <si>
     <t>ZHV06520</t>
+  </si>
+  <si>
+    <t>OPL38120</t>
+  </si>
+  <si>
+    <t>UXO62877</t>
   </si>
 </sst>
 </file>
@@ -1561,7 +1567,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1923,7 +1929,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="206">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -645,6 +645,12 @@
   </si>
   <si>
     <t>UXO62877</t>
+  </si>
+  <si>
+    <t>UDS99819</t>
+  </si>
+  <si>
+    <t>IKT15569</t>
   </si>
 </sst>
 </file>
@@ -1929,7 +1935,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="213">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -651,6 +651,27 @@
   </si>
   <si>
     <t>IKT15569</t>
+  </si>
+  <si>
+    <t>PVL63887</t>
+  </si>
+  <si>
+    <t>EIN18929</t>
+  </si>
+  <si>
+    <t>GTI58137</t>
+  </si>
+  <si>
+    <t>WBV85107</t>
+  </si>
+  <si>
+    <t>IFJ08324</t>
+  </si>
+  <si>
+    <t>ALI22635</t>
+  </si>
+  <si>
+    <t>CAF85284</t>
   </si>
 </sst>
 </file>
@@ -1573,7 +1594,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1935,7 +1956,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="219">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -672,6 +672,24 @@
   </si>
   <si>
     <t>CAF85284</t>
+  </si>
+  <si>
+    <t>TGT08188</t>
+  </si>
+  <si>
+    <t>AWO66773</t>
+  </si>
+  <si>
+    <t>CLK29357</t>
+  </si>
+  <si>
+    <t>FDI97701</t>
+  </si>
+  <si>
+    <t>KGS00717</t>
+  </si>
+  <si>
+    <t>SPD31188</t>
   </si>
 </sst>
 </file>
@@ -1594,7 +1612,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1956,7 +1974,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="225">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -690,6 +690,24 @@
   </si>
   <si>
     <t>SPD31188</t>
+  </si>
+  <si>
+    <t>YDH93816</t>
+  </si>
+  <si>
+    <t>EUD54907</t>
+  </si>
+  <si>
+    <t>ROW30667</t>
+  </si>
+  <si>
+    <t>ZEY94930</t>
+  </si>
+  <si>
+    <t>DGZ03724</t>
+  </si>
+  <si>
+    <t>KTW58257</t>
   </si>
 </sst>
 </file>
@@ -1612,7 +1630,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1974,7 +1992,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="227">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -708,6 +708,12 @@
   </si>
   <si>
     <t>KTW58257</t>
+  </si>
+  <si>
+    <t>FNO35344</t>
+  </si>
+  <si>
+    <t>GOL31993</t>
   </si>
 </sst>
 </file>
@@ -1630,7 +1636,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1992,7 +1998,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="243">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -714,6 +714,54 @@
   </si>
   <si>
     <t>GOL31993</t>
+  </si>
+  <si>
+    <t>AWM63265</t>
+  </si>
+  <si>
+    <t>TJY17209</t>
+  </si>
+  <si>
+    <t>CKR27271</t>
+  </si>
+  <si>
+    <t>MFD02618</t>
+  </si>
+  <si>
+    <t>QVR63190</t>
+  </si>
+  <si>
+    <t>GWM68906</t>
+  </si>
+  <si>
+    <t>HLC23039</t>
+  </si>
+  <si>
+    <t>RNM39984</t>
+  </si>
+  <si>
+    <t>FDK91578</t>
+  </si>
+  <si>
+    <t>SKR14205</t>
+  </si>
+  <si>
+    <t>UIL12539</t>
+  </si>
+  <si>
+    <t>ASM42476</t>
+  </si>
+  <si>
+    <t>HVO60511</t>
+  </si>
+  <si>
+    <t>FKE26720</t>
+  </si>
+  <si>
+    <t>LTR55544</t>
+  </si>
+  <si>
+    <t>OEO99140</t>
   </si>
 </sst>
 </file>
@@ -1636,7 +1684,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1998,7 +2046,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="260">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -762,6 +762,57 @@
   </si>
   <si>
     <t>OEO99140</t>
+  </si>
+  <si>
+    <t>QNN20895</t>
+  </si>
+  <si>
+    <t>NTF58990</t>
+  </si>
+  <si>
+    <t>CJY15529</t>
+  </si>
+  <si>
+    <t>VBJ82420</t>
+  </si>
+  <si>
+    <t>SKG20015</t>
+  </si>
+  <si>
+    <t>JIK18057</t>
+  </si>
+  <si>
+    <t>VYJ72604</t>
+  </si>
+  <si>
+    <t>BFK97592</t>
+  </si>
+  <si>
+    <t>BAU76427</t>
+  </si>
+  <si>
+    <t>BIG17724</t>
+  </si>
+  <si>
+    <t>LZD78461</t>
+  </si>
+  <si>
+    <t>MNO99666</t>
+  </si>
+  <si>
+    <t>GDL69488</t>
+  </si>
+  <si>
+    <t>IAI81423</t>
+  </si>
+  <si>
+    <t>SLF54993</t>
+  </si>
+  <si>
+    <t>JNZ25102</t>
+  </si>
+  <si>
+    <t>NEB97452</t>
   </si>
 </sst>
 </file>
@@ -1684,7 +1735,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2046,7 +2097,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="265">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -813,6 +813,21 @@
   </si>
   <si>
     <t>NEB97452</t>
+  </si>
+  <si>
+    <t>GYC74378</t>
+  </si>
+  <si>
+    <t>THM08507</t>
+  </si>
+  <si>
+    <t>OXY67216</t>
+  </si>
+  <si>
+    <t>HXQ71520</t>
+  </si>
+  <si>
+    <t>EPY37310</t>
   </si>
 </sst>
 </file>
@@ -1735,7 +1750,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2097,7 +2112,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="277">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -828,6 +828,42 @@
   </si>
   <si>
     <t>EPY37310</t>
+  </si>
+  <si>
+    <t>AGB08155</t>
+  </si>
+  <si>
+    <t>HCZ88995</t>
+  </si>
+  <si>
+    <t>TJR19919</t>
+  </si>
+  <si>
+    <t>UYT80923</t>
+  </si>
+  <si>
+    <t>LOG31433</t>
+  </si>
+  <si>
+    <t>UBT88192</t>
+  </si>
+  <si>
+    <t>FIJ13265</t>
+  </si>
+  <si>
+    <t>DPV30389</t>
+  </si>
+  <si>
+    <t>NAE87001</t>
+  </si>
+  <si>
+    <t>VED97253</t>
+  </si>
+  <si>
+    <t>IOV34868</t>
+  </si>
+  <si>
+    <t>LLQ21367</t>
   </si>
 </sst>
 </file>
@@ -1750,7 +1786,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2112,7 +2148,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="295">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -864,6 +864,60 @@
   </si>
   <si>
     <t>LLQ21367</t>
+  </si>
+  <si>
+    <t>CFA02463</t>
+  </si>
+  <si>
+    <t>AFI07575</t>
+  </si>
+  <si>
+    <t>SRL43678</t>
+  </si>
+  <si>
+    <t>OAA85098</t>
+  </si>
+  <si>
+    <t>IOH30147</t>
+  </si>
+  <si>
+    <t>YIH15010</t>
+  </si>
+  <si>
+    <t>YXZ64844</t>
+  </si>
+  <si>
+    <t>YFZ90194</t>
+  </si>
+  <si>
+    <t>SYA75403</t>
+  </si>
+  <si>
+    <t>ICU82530</t>
+  </si>
+  <si>
+    <t>ZRA41048</t>
+  </si>
+  <si>
+    <t>OWA64967</t>
+  </si>
+  <si>
+    <t>ASN51499</t>
+  </si>
+  <si>
+    <t>ASV52259</t>
+  </si>
+  <si>
+    <t>KRR48023</t>
+  </si>
+  <si>
+    <t>BWV66900</t>
+  </si>
+  <si>
+    <t>CSE58245</t>
+  </si>
+  <si>
+    <t>YTS55832</t>
   </si>
 </sst>
 </file>
@@ -1786,7 +1840,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2148,7 +2202,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="297">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -918,6 +918,12 @@
   </si>
   <si>
     <t>YTS55832</t>
+  </si>
+  <si>
+    <t>MDJ93968</t>
+  </si>
+  <si>
+    <t>NWY65049</t>
   </si>
 </sst>
 </file>
@@ -1840,7 +1846,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2202,7 +2208,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="299">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -924,6 +924,12 @@
   </si>
   <si>
     <t>NWY65049</t>
+  </si>
+  <si>
+    <t>YWZ65054</t>
+  </si>
+  <si>
+    <t>VKJ22421</t>
   </si>
 </sst>
 </file>
@@ -1846,7 +1852,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2208,7 +2214,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="303">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -930,6 +930,18 @@
   </si>
   <si>
     <t>VKJ22421</t>
+  </si>
+  <si>
+    <t>RXJ61545</t>
+  </si>
+  <si>
+    <t>VZZ70118</t>
+  </si>
+  <si>
+    <t>BLW24097</t>
+  </si>
+  <si>
+    <t>ESW56259</t>
   </si>
 </sst>
 </file>
@@ -1852,7 +1864,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2214,7 +2226,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="307">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -942,6 +942,18 @@
   </si>
   <si>
     <t>ESW56259</t>
+  </si>
+  <si>
+    <t>QGS05016</t>
+  </si>
+  <si>
+    <t>IVI63917</t>
+  </si>
+  <si>
+    <t>DBM80429</t>
+  </si>
+  <si>
+    <t>KAR88855</t>
   </si>
 </sst>
 </file>
@@ -1864,7 +1876,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2226,7 +2238,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="319">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -954,6 +954,42 @@
   </si>
   <si>
     <t>KAR88855</t>
+  </si>
+  <si>
+    <t>SUG58352</t>
+  </si>
+  <si>
+    <t>NHH04429</t>
+  </si>
+  <si>
+    <t>LVL63138</t>
+  </si>
+  <si>
+    <t>UPE37879</t>
+  </si>
+  <si>
+    <t>YIM15697</t>
+  </si>
+  <si>
+    <t>NKJ29257</t>
+  </si>
+  <si>
+    <t>OTY57454</t>
+  </si>
+  <si>
+    <t>XRX47231</t>
+  </si>
+  <si>
+    <t>MQT49944</t>
+  </si>
+  <si>
+    <t>HJZ12739</t>
+  </si>
+  <si>
+    <t>USQ41708</t>
+  </si>
+  <si>
+    <t>MBN89310</t>
   </si>
 </sst>
 </file>
@@ -1876,7 +1912,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2238,7 +2274,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="323">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -990,6 +990,18 @@
   </si>
   <si>
     <t>MBN89310</t>
+  </si>
+  <si>
+    <t>DJJ12316</t>
+  </si>
+  <si>
+    <t>BUL52003</t>
+  </si>
+  <si>
+    <t>MXM65033</t>
+  </si>
+  <si>
+    <t>DAR81075</t>
   </si>
 </sst>
 </file>
@@ -1912,7 +1924,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2274,7 +2286,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="331">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -1002,6 +1002,30 @@
   </si>
   <si>
     <t>DAR81075</t>
+  </si>
+  <si>
+    <t>KVM62754</t>
+  </si>
+  <si>
+    <t>KEW91808</t>
+  </si>
+  <si>
+    <t>ZEC90073</t>
+  </si>
+  <si>
+    <t>API34512</t>
+  </si>
+  <si>
+    <t>DVG61762</t>
+  </si>
+  <si>
+    <t>YTT58149</t>
+  </si>
+  <si>
+    <t>ZIN12239</t>
+  </si>
+  <si>
+    <t>CRI45346</t>
   </si>
 </sst>
 </file>
@@ -1924,7 +1948,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2286,7 +2310,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="356">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -1026,6 +1026,81 @@
   </si>
   <si>
     <t>CRI45346</t>
+  </si>
+  <si>
+    <t>OBT83105</t>
+  </si>
+  <si>
+    <t>TTD58652</t>
+  </si>
+  <si>
+    <t>VXB63831</t>
+  </si>
+  <si>
+    <t>GCQ82921</t>
+  </si>
+  <si>
+    <t>OWH68972</t>
+  </si>
+  <si>
+    <t>VVC66953</t>
+  </si>
+  <si>
+    <t>IGV04751</t>
+  </si>
+  <si>
+    <t>JUD54934</t>
+  </si>
+  <si>
+    <t>LAL89551</t>
+  </si>
+  <si>
+    <t>BIP13869</t>
+  </si>
+  <si>
+    <t>DJT11588</t>
+  </si>
+  <si>
+    <t>EKA27752</t>
+  </si>
+  <si>
+    <t>RGE09594</t>
+  </si>
+  <si>
+    <t>WVI86364</t>
+  </si>
+  <si>
+    <t>AVL60115</t>
+  </si>
+  <si>
+    <t>PTW56595</t>
+  </si>
+  <si>
+    <t>YCC80785</t>
+  </si>
+  <si>
+    <t>NFU64158</t>
+  </si>
+  <si>
+    <t>XCM88943</t>
+  </si>
+  <si>
+    <t>ECH90376</t>
+  </si>
+  <si>
+    <t>DTX38152</t>
+  </si>
+  <si>
+    <t>JQA40739</t>
+  </si>
+  <si>
+    <t>YGZ04408</t>
+  </si>
+  <si>
+    <t>DKN16714</t>
+  </si>
+  <si>
+    <t>YWH65156</t>
   </si>
 </sst>
 </file>
@@ -1948,7 +2023,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>330</v>
+        <v>355</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2310,7 +2385,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="358">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -1101,6 +1101,12 @@
   </si>
   <si>
     <t>YWH65156</t>
+  </si>
+  <si>
+    <t>BHE09006</t>
+  </si>
+  <si>
+    <t>TTM54429</t>
   </si>
 </sst>
 </file>
@@ -2023,7 +2029,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2385,7 +2391,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="360">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -1107,6 +1107,12 @@
   </si>
   <si>
     <t>TTM54429</t>
+  </si>
+  <si>
+    <t>UJC12994</t>
+  </si>
+  <si>
+    <t>HSG55085</t>
   </si>
 </sst>
 </file>
@@ -2029,7 +2035,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2391,7 +2397,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="362">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -1113,6 +1113,12 @@
   </si>
   <si>
     <t>HSG55085</t>
+  </si>
+  <si>
+    <t>MZA79346</t>
+  </si>
+  <si>
+    <t>PMA20116</t>
   </si>
 </sst>
 </file>
@@ -2035,7 +2041,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2397,7 +2403,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="366">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -1119,6 +1119,18 @@
   </si>
   <si>
     <t>PMA20116</t>
+  </si>
+  <si>
+    <t>WYZ75608</t>
+  </si>
+  <si>
+    <t>AJW19577</t>
+  </si>
+  <si>
+    <t>POE31751</t>
+  </si>
+  <si>
+    <t>QNK33052</t>
   </si>
 </sst>
 </file>
@@ -2041,7 +2053,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2403,7 +2415,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="368">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -1131,6 +1131,12 @@
   </si>
   <si>
     <t>QNK33052</t>
+  </si>
+  <si>
+    <t>VPC31159</t>
+  </si>
+  <si>
+    <t>OVH60981</t>
   </si>
 </sst>
 </file>
@@ -2053,7 +2059,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2415,7 +2421,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="376">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -1137,6 +1137,30 @@
   </si>
   <si>
     <t>OVH60981</t>
+  </si>
+  <si>
+    <t>ACU89167</t>
+  </si>
+  <si>
+    <t>UAW89811</t>
+  </si>
+  <si>
+    <t>TKH25482</t>
+  </si>
+  <si>
+    <t>UKO11851</t>
+  </si>
+  <si>
+    <t>QKO19057</t>
+  </si>
+  <si>
+    <t>FBM82714</t>
+  </si>
+  <si>
+    <t>OKT26965</t>
+  </si>
+  <si>
+    <t>ERP40025</t>
   </si>
 </sst>
 </file>
@@ -2059,7 +2083,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2421,7 +2445,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="378">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -1161,6 +1161,12 @@
   </si>
   <si>
     <t>ERP40025</t>
+  </si>
+  <si>
+    <t>RVC63504</t>
+  </si>
+  <si>
+    <t>JJW10223</t>
   </si>
 </sst>
 </file>
@@ -2083,7 +2089,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2445,7 +2451,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="380">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -1167,6 +1167,12 @@
   </si>
   <si>
     <t>JJW10223</t>
+  </si>
+  <si>
+    <t>FTC59253</t>
+  </si>
+  <si>
+    <t>IBR84627</t>
   </si>
 </sst>
 </file>
@@ -2089,7 +2095,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2451,7 +2457,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="382">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -1173,6 +1173,12 @@
   </si>
   <si>
     <t>IBR84627</t>
+  </si>
+  <si>
+    <t>UUC55597</t>
+  </si>
+  <si>
+    <t>DAD89734</t>
   </si>
 </sst>
 </file>
@@ -2095,7 +2101,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2457,7 +2463,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="384">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -1179,6 +1179,12 @@
   </si>
   <si>
     <t>DAD89734</t>
+  </si>
+  <si>
+    <t>EDS97433</t>
+  </si>
+  <si>
+    <t>RTQ55388</t>
   </si>
 </sst>
 </file>
@@ -2101,7 +2107,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2463,7 +2469,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="387">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -1185,6 +1185,15 @@
   </si>
   <si>
     <t>RTQ55388</t>
+  </si>
+  <si>
+    <t>ICN80174</t>
+  </si>
+  <si>
+    <t>NME29301</t>
+  </si>
+  <si>
+    <t>YDJ98406</t>
   </si>
 </sst>
 </file>
@@ -2107,7 +2116,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2469,7 +2478,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
